--- a/xlsx/dexEntry.xlsx
+++ b/xlsx/dexEntry.xlsx
@@ -1,3 +1,26 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/pokeredCHS/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE4929C-E768-BC48-820C-EB5264459FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="10840" yWindow="1040" windowWidth="28060" windowHeight="24440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'工作表 1'!$A$1:$Q$152</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="1564">
@@ -4709,4 +4732,9478 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+  <a:themeElements>
+    <a:clrScheme name="Blank">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="5E5E5E"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="D5D5D5"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="00A2FF"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="16E7CF"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="61D836"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFD932"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="FF644E"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="FF42A1"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="FF00FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Blank">
+      <a:majorFont>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Blank">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Helvetica Neue Medium"/>
+            <a:ea typeface="Helvetica Neue Medium"/>
+            <a:cs typeface="Helvetica Neue Medium"/>
+            <a:sym typeface="Helvetica Neue Medium"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R154"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2:R153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="16.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="22.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="50.5" customHeight="1">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2650</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="50.5" customHeight="1">
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1760</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="6">
+        <v>200</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="64.25" customHeight="1">
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="6">
+        <v>170</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="64.25" customHeight="1">
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="6">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="6">
+        <v>230</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1370</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1730</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="6">
+        <v>290</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2650</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B12" s="7">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1440</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="64.25" customHeight="1">
+      <c r="B13" s="7">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="6">
+        <v>60</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B14" s="7">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="6">
+        <v>660</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B15" s="7">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="6">
+        <v>890</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B16" s="7">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="6">
+        <v>150</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B17" s="7">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1320</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B18" s="7">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="6">
+        <v>140</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="50.5" customHeight="1">
+      <c r="B19" s="7">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2540</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B20" s="7">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="I20" s="6">
+        <v>4850</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B21" s="7">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3420</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B22" s="7">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="6">
+        <v>90</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B23" s="7">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I23" s="6">
+        <v>5180</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="64.25" customHeight="1">
+      <c r="B24" s="7">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="6">
+        <v>90</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B25" s="7">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B26" s="7">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B27" s="7">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1230</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B28" s="7">
+        <v>27</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I28" s="6">
+        <v>760</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B29" s="7">
+        <v>28</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1890</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B30" s="7">
+        <v>29</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1210</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B31" s="7">
+        <v>30</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="6">
+        <v>770</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B32" s="7">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I32" s="6">
+        <v>420</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B33" s="7">
+        <v>34</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="I33" s="6">
+        <v>4630</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B34" s="7">
+        <v>35</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" s="6">
+        <v>840</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B35" s="7">
+        <v>36</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" s="6">
+        <v>40</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B36" s="7">
+        <v>37</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="6">
+        <v>790</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B37" s="7">
+        <v>38</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I37" s="6">
+        <v>1250</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" ht="36.25" customHeight="1">
+      <c r="B38" s="7">
+        <v>39</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="6">
+        <v>2320</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B39" s="7">
+        <v>40</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I39" s="6">
+        <v>760</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B40" s="7">
+        <v>41</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1550</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B41" s="7">
+        <v>42</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" s="6">
+        <v>1200</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" ht="36.25" customHeight="1">
+      <c r="B42" s="7">
+        <v>43</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I42" s="6">
+        <v>1100</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B43" s="7">
+        <v>44</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1110</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B44" s="7">
+        <v>45</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1430</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B45" s="7">
+        <v>46</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="6">
+        <v>650</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B46" s="7">
+        <v>47</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I46" s="6">
+        <v>430</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B47" s="7">
+        <v>48</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" s="6">
+        <v>710</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B48" s="7">
+        <v>49</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="6">
+        <v>6620</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B49" s="7">
+        <v>51</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" s="6">
+        <v>980</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B50" s="7">
+        <v>53</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I50" s="6">
+        <v>660</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B51" s="7">
+        <v>54</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="6">
+        <v>1320</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B52" s="7">
+        <v>55</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" s="6">
+        <v>20</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B53" s="7">
+        <v>57</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" s="6">
+        <v>620</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B54" s="7">
+        <v>58</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I54" s="6">
+        <v>1980</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" ht="64.25" customHeight="1">
+      <c r="B55" s="7">
+        <v>59</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I55" s="6">
+        <v>20</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B56" s="7">
+        <v>60</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1950</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B57" s="7">
+        <v>64</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I57" s="6">
+        <v>330</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B58" s="7">
+        <v>65</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I58" s="6">
+        <v>660</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B59" s="7">
+        <v>66</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="6">
+        <v>4630</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q59" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B60" s="7">
+        <v>70</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60" s="6">
+        <v>860</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B61" s="7">
+        <v>71</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I61" s="6">
+        <v>270</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="R61" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" ht="64.25" customHeight="1">
+      <c r="B62" s="7">
+        <v>72</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I62" s="6">
+        <v>900</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" ht="64.25" customHeight="1">
+      <c r="B63" s="7">
+        <v>73</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1320</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q63" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B64" s="7">
+        <v>74</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="I64" s="6">
+        <v>1220</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="R64" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B65" s="7">
+        <v>75</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I65" s="6">
+        <v>1160</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q65" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="R65" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B66" s="7">
+        <v>76</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I66" s="6">
+        <v>90</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q66" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="R66" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" ht="64.25" customHeight="1">
+      <c r="B67" s="7">
+        <v>77</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I67" s="6">
+        <v>90</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q67" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="R67" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B68" s="7">
+        <v>78</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I68" s="6">
+        <v>140</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q68" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" ht="64.25" customHeight="1">
+      <c r="B69" s="7">
+        <v>82</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I69" s="6">
+        <v>220</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q69" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="R69" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B70" s="7">
+        <v>83</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I70" s="6">
+        <v>440</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q70" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="R70" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B71" s="7">
+        <v>84</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I71" s="6">
+        <v>130</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q71" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="R71" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B72" s="7">
+        <v>85</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I72" s="6">
+        <v>660</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q72" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="R72" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B73" s="7">
+        <v>88</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="I73" s="6">
+        <v>70</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q73" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="R73" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B74" s="7">
+        <v>89</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="I74" s="6">
+        <v>360</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q74" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="R74" s="6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B75" s="7">
+        <v>90</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" s="6">
+        <v>250</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q75" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="R75" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B76" s="7">
+        <v>91</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I76" s="6">
+        <v>890</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q76" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="R76" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B77" s="7">
+        <v>92</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I77" s="6">
+        <v>180</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q77" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="R77" s="6" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B78" s="7">
+        <v>93</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I78" s="6">
+        <v>550</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q78" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="R78" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B79" s="7">
+        <v>96</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I79" s="6">
+        <v>260</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q79" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B80" s="7">
+        <v>97</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I80" s="6">
+        <v>650</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q80" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="R80" s="6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B81" s="7">
+        <v>98</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I81" s="6">
+        <v>170</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B82" s="7">
+        <v>99</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I82" s="6">
+        <v>770</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q82" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="R82" s="6" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B83" s="7">
+        <v>100</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>886</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" s="6">
+        <v>120</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="Q83" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="R83" s="6" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B84" s="7">
+        <v>101</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I84" s="6">
+        <v>260</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="O84" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q84" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="R84" s="6" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B85" s="7">
+        <v>102</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I85" s="6">
+        <v>140</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q85" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="R85" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B86" s="7">
+        <v>103</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>916</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I86" s="6">
+        <v>550</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>917</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>920</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q86" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="R86" s="6" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B87" s="7">
+        <v>104</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I87" s="6">
+        <v>540</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="Q87" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="R87" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B88" s="7">
+        <v>105</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I88" s="6">
+        <v>640</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="O88" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q88" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="R88" s="6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B89" s="7">
+        <v>106</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I89" s="6">
+        <v>430</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q89" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" ht="36.25" customHeight="1">
+      <c r="B90" s="7">
+        <v>107</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I90" s="6">
+        <v>170</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q90" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="R90" s="6" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B91" s="7">
+        <v>108</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I91" s="6">
+        <v>150</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="Q91" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B92" s="7">
+        <v>109</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>975</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>976</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I92" s="6">
+        <v>120</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>978</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>979</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>980</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="Q92" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="R92" s="6" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="93" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B93" s="7">
+        <v>110</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I93" s="6">
+        <v>440</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="O93" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q93" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="R93" s="6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="94" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B94" s="7">
+        <v>111</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I94" s="6">
+        <v>1190</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q94" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R94" s="6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B95" s="7">
+        <v>112</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I95" s="6">
+        <v>70</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O95" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q95" s="6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R95" s="6" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18" ht="64.25" customHeight="1">
+      <c r="B96" s="7">
+        <v>113</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I96" s="6">
+        <v>220</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O96" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Q96" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="R96" s="6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18" ht="64.25" customHeight="1">
+      <c r="B97" s="7">
+        <v>114</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I97" s="6">
+        <v>650</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="O97" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q97" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="R97" s="6" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18" ht="50.5" customHeight="1">
+      <c r="B98" s="7">
+        <v>116</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="I98" s="6">
+        <v>1880</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Q98" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="R98" s="6" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B99" s="7">
+        <v>117</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I99" s="6">
+        <v>710</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="O99" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q99" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R99" s="6" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18" ht="64.25" customHeight="1">
+      <c r="B100" s="7">
+        <v>118</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I100" s="6">
+        <v>730</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="O100" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q100" s="6" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R100" s="6" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="101" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B101" s="7">
+        <v>119</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I101" s="6">
+        <v>280</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P101" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Q101" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="R101" s="6" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18" ht="50.5" customHeight="1">
+      <c r="B102" s="7">
+        <v>120</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="I102" s="6">
+        <v>2650</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q102" s="6" t="s">
+        <v>1080</v>
+      </c>
+      <c r="R102" s="6" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="103" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B103" s="7">
+        <v>123</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I103" s="6">
+        <v>60</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P103" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q103" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R103" s="6" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" ht="64.25" customHeight="1">
+      <c r="B104" s="7">
+        <v>124</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I104" s="6">
+        <v>220</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O104" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q104" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="R104" s="6" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="105" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B105" s="7">
+        <v>125</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I105" s="6">
+        <v>710</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="O105" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="P105" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q105" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B106" s="7">
+        <v>126</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H106" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I106" s="6">
+        <v>2870</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Q106" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="R106" s="6" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B107" s="7">
+        <v>128</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="I107" s="6">
+        <v>1690</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="O107" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="P107" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Q107" s="6" t="s">
+        <v>1126</v>
+      </c>
+      <c r="R107" s="6" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B108" s="7">
+        <v>129</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I108" s="6">
+        <v>1670</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="O108" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P108" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q108" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="R108" s="6" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="109" spans="2:18" ht="50.5" customHeight="1">
+      <c r="B109" s="7">
+        <v>130</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>957</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I109" s="6">
+        <v>1210</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="O109" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P109" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q109" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="R109" s="6" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="110" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B110" s="7">
+        <v>131</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I110" s="6">
+        <v>2690</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O110" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P110" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="Q110" s="6" t="s">
+        <v>1154</v>
+      </c>
+      <c r="R110" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="111" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B111" s="7">
+        <v>132</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I111" s="6">
+        <v>10140</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="O111" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="P111" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="Q111" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="R111" s="6" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="112" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B112" s="7">
+        <v>133</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I112" s="6">
+        <v>220</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="O112" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P112" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Q112" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="R112" s="6" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="113" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B113" s="7">
+        <v>136</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I113" s="6">
+        <v>660</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="O113" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P113" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q113" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="R113" s="6" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="114" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B114" s="7">
+        <v>138</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I114" s="6">
+        <v>1320</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="O114" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P114" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q114" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="R114" s="6" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="115" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B115" s="7">
+        <v>139</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I115" s="6">
+        <v>2920</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="O115" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P115" s="6" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q115" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="R115" s="6" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="116" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B116" s="7">
+        <v>141</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I116" s="6">
+        <v>1470</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O116" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P116" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="Q116" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="R116" s="6" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="117" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B117" s="7">
+        <v>142</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I117" s="6">
+        <v>880</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O117" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P117" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="Q117" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="R117" s="6" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="118" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B118" s="7">
+        <v>143</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I118" s="6">
+        <v>210</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="O118" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P118" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="Q118" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="R118" s="6" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="119" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B119" s="7">
+        <v>144</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I119" s="6">
+        <v>710</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="M119" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="N119" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="O119" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P119" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q119" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="R119" s="6" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="120" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B120" s="7">
+        <v>145</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I120" s="6">
+        <v>990</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="O120" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P120" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Q120" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="R120" s="6" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="121" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B121" s="7">
+        <v>147</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I121" s="6">
+        <v>2</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="O121" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P121" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q121" s="6" t="s">
+        <v>1260</v>
+      </c>
+      <c r="R121" s="6" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="122" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B122" s="7">
+        <v>148</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I122" s="6">
+        <v>430</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="O122" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P122" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q122" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="R122" s="6" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="123" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B123" s="7">
+        <v>149</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I123" s="6">
+        <v>1060</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="O123" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P123" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="Q123" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="R123" s="6" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="124" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B124" s="7">
+        <v>150</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I124" s="6">
+        <v>660</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="O124" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="P124" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q124" s="6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="R124" s="6" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="125" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B125" s="7">
+        <v>151</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I125" s="6">
+        <v>870</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>1294</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="O125" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="P125" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="Q125" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="R125" s="6" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="126" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B126" s="7">
+        <v>152</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I126" s="6">
+        <v>1760</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L126" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M126" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="N126" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="O126" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="P126" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q126" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="R126" s="6" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="127" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B127" s="7">
+        <v>153</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I127" s="6">
+        <v>150</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L127" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M127" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O127" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="P127" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="Q127" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="R127" s="6" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="128" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B128" s="7">
+        <v>154</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I128" s="6">
+        <v>2210</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O128" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P128" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="Q128" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="R128" s="6" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="129" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B129" s="7">
+        <v>155</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I129" s="6">
+        <v>1210</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="O129" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="P129" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q129" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="R129" s="6" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="130" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B130" s="7">
+        <v>157</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I130" s="6">
+        <v>330</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="L130" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="O130" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P130" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q130" s="6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="R130" s="6" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="131" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B131" s="7">
+        <v>158</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G131" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I131" s="6">
+        <v>860</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>1346</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>1347</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>1348</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="O131" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P131" s="6" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q131" s="6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="R131" s="6" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="132" spans="2:18" ht="36.5" customHeight="1">
+      <c r="B132" s="7">
+        <v>163</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I132" s="6">
+        <v>660</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>1360</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O132" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P132" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q132" s="6" t="s">
+        <v>1360</v>
+      </c>
+      <c r="R132" s="6" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="133" spans="2:18" ht="50.5" customHeight="1">
+      <c r="B133" s="7">
+        <v>164</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="I133" s="6">
+        <v>2090</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>1365</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M133" s="6" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N133" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="O133" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="P133" s="6" t="s">
+        <v>1368</v>
+      </c>
+      <c r="Q133" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="R133" s="6" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="134" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B134" s="7">
+        <v>165</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I134" s="6">
+        <v>80</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>1375</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>1376</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>1377</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="O134" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P134" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q134" s="6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="R134" s="6" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="135" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B135" s="7">
+        <v>166</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I135" s="6">
+        <v>410</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="M135" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="N135" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="O135" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="P135" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="Q135" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="R135" s="6" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="136" spans="2:18" ht="64.25" customHeight="1">
+      <c r="B136" s="7">
+        <v>167</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G136" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I136" s="6">
+        <v>430</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="K136" s="6" t="s">
+        <v>1392</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>1393</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N136" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O136" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="P136" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q136" s="6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="R136" s="6" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="137" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B137" s="7">
+        <v>168</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I137" s="6">
+        <v>440</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>1400</v>
+      </c>
+      <c r="L137" s="6" t="s">
+        <v>1401</v>
+      </c>
+      <c r="M137" s="6" t="s">
+        <v>1402</v>
+      </c>
+      <c r="N137" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O137" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="P137" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q137" s="6" t="s">
+        <v>1403</v>
+      </c>
+      <c r="R137" s="6" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="138" spans="2:18" ht="64.25" customHeight="1">
+      <c r="B138" s="7">
+        <v>169</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I138" s="6">
+        <v>440</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K138" s="6" t="s">
+        <v>1408</v>
+      </c>
+      <c r="L138" s="6" t="s">
+        <v>1409</v>
+      </c>
+      <c r="M138" s="6" t="s">
+        <v>1410</v>
+      </c>
+      <c r="N138" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="O138" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P138" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q138" s="6" t="s">
+        <v>1411</v>
+      </c>
+      <c r="R138" s="6" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="139" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B139" s="7">
+        <v>170</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G139" s="6" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I139" s="6">
+        <v>800</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>1417</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>1420</v>
+      </c>
+      <c r="O139" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="P139" s="6" t="s">
+        <v>1421</v>
+      </c>
+      <c r="Q139" s="6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="R139" s="6" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="140" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B140" s="7">
+        <v>171</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="I140" s="6">
+        <v>1300</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>1428</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>1429</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="N140" s="6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P140" s="6" t="s">
+        <v>1432</v>
+      </c>
+      <c r="Q140" s="6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="R140" s="6" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="141" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B141" s="7">
+        <v>173</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I141" s="6">
+        <v>130</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>1439</v>
+      </c>
+      <c r="M141" s="6" t="s">
+        <v>1440</v>
+      </c>
+      <c r="N141" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="O141" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P141" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q141" s="6" t="s">
+        <v>1441</v>
+      </c>
+      <c r="R141" s="6" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="142" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B142" s="7">
+        <v>176</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I142" s="6">
+        <v>190</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>1447</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>1448</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>1449</v>
+      </c>
+      <c r="N142" s="6" t="s">
+        <v>1450</v>
+      </c>
+      <c r="O142" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P142" s="6" t="s">
+        <v>1451</v>
+      </c>
+      <c r="Q142" s="6" t="s">
+        <v>1452</v>
+      </c>
+      <c r="R142" s="6" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="143" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B143" s="7">
+        <v>177</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I143" s="6">
+        <v>200</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>1459</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="O143" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P143" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q143" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="R143" s="6" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="144" spans="2:18" ht="50.25" customHeight="1">
+      <c r="B144" s="7">
+        <v>178</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="I144" s="6">
+        <v>420</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>1467</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>1468</v>
+      </c>
+      <c r="M144" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="N144" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="O144" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="P144" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q144" s="6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="R144" s="6" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B145" s="7">
+        <v>179</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I145" s="6">
+        <v>500</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>1476</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>1477</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>1478</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O145" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P145" s="6" t="s">
+        <v>1480</v>
+      </c>
+      <c r="Q145" s="6" t="s">
+        <v>1481</v>
+      </c>
+      <c r="R145" s="6" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B146" s="7">
+        <v>180</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="I146" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>1488</v>
+      </c>
+      <c r="N146" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="O146" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="P146" s="6" t="s">
+        <v>1489</v>
+      </c>
+      <c r="Q146" s="6" t="s">
+        <v>1490</v>
+      </c>
+      <c r="R146" s="6" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B147" s="7">
+        <v>185</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I147" s="6">
+        <v>120</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>1496</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>1497</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="O147" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P147" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="Q147" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="R147" s="6" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B148" s="7">
+        <v>186</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="I148" s="6">
+        <v>190</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>1505</v>
+      </c>
+      <c r="L148" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="M148" s="6" t="s">
+        <v>1507</v>
+      </c>
+      <c r="N148" s="6" t="s">
+        <v>1499</v>
+      </c>
+      <c r="O148" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="P148" s="6" t="s">
+        <v>1508</v>
+      </c>
+      <c r="Q148" s="6" t="s">
+        <v>1509</v>
+      </c>
+      <c r="R148" s="6" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B149" s="7">
+        <v>187</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I149" s="6">
+        <v>410</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>1515</v>
+      </c>
+      <c r="L149" s="6" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M149" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="N149" s="6" t="s">
+        <v>1518</v>
+      </c>
+      <c r="O149" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="P149" s="6" t="s">
+        <v>1519</v>
+      </c>
+      <c r="Q149" s="6" t="s">
+        <v>1520</v>
+      </c>
+      <c r="R149" s="6" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B150" s="7">
+        <v>188</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I150" s="6">
+        <v>90</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>1525</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>1526</v>
+      </c>
+      <c r="M150" s="6" t="s">
+        <v>1527</v>
+      </c>
+      <c r="N150" s="6" t="s">
+        <v>1518</v>
+      </c>
+      <c r="O150" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="P150" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q150" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="R150" s="6" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B151" s="7">
+        <v>189</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G151" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I151" s="6">
+        <v>140</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>1539</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L151" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M151" s="6" t="s">
+        <v>1536</v>
+      </c>
+      <c r="N151" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="O151" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P151" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="Q151" s="6" t="s">
+        <v>1539</v>
+      </c>
+      <c r="R151" s="6" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B152" s="11">
+        <v>190</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>1546</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="I152" s="10">
+        <v>340</v>
+      </c>
+      <c r="J152" s="10" t="s">
+        <v>1548</v>
+      </c>
+      <c r="K152" s="10" t="s">
+        <v>1544</v>
+      </c>
+      <c r="L152" s="10" t="s">
+        <v>1545</v>
+      </c>
+      <c r="M152" s="10" t="s">
+        <v>1546</v>
+      </c>
+      <c r="N152" s="10" t="s">
+        <v>1537</v>
+      </c>
+      <c r="O152" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="P152" s="10" t="s">
+        <v>1547</v>
+      </c>
+      <c r="Q152" s="16" t="s">
+        <v>1561</v>
+      </c>
+      <c r="R152" s="10" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B153" s="12">
+        <v>191</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>1553</v>
+      </c>
+      <c r="H153" s="13" t="s">
+        <v>1562</v>
+      </c>
+      <c r="I153" s="13" t="s">
+        <v>1555</v>
+      </c>
+      <c r="J153" s="14" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K153" s="14" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L153" s="14" t="s">
+        <v>1556</v>
+      </c>
+      <c r="M153" s="13" t="s">
+        <v>1552</v>
+      </c>
+      <c r="N153" s="13" t="s">
+        <v>1553</v>
+      </c>
+      <c r="O153" s="13" t="s">
+        <v>1554</v>
+      </c>
+      <c r="P153" s="13" t="s">
+        <v>1555</v>
+      </c>
+      <c r="Q153" s="13" t="s">
+        <v>1556</v>
+      </c>
+      <c r="R153" s="13" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" ht="20" customHeight="1">
+      <c r="A154" s="15" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q152" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q152">
+      <sortCondition ref="B1:B152"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>